--- a/excise_request/data/cases.xlsx
+++ b/excise_request/data/cases.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="748" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="748" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
     <sheet name="withdraw" sheetId="4" r:id="rId4"/>
-    <sheet name="invest" sheetId="6" r:id="rId5"/>
-    <sheet name="add_loan" sheetId="8" r:id="rId6"/>
-    <sheet name="audit" sheetId="9" r:id="rId7"/>
-    <sheet name="未覆盖到的用例" sheetId="11" r:id="rId8"/>
+    <sheet name="invest" sheetId="5" r:id="rId5"/>
+    <sheet name="add" sheetId="6" r:id="rId6"/>
+    <sheet name="audit" sheetId="7" r:id="rId7"/>
+    <sheet name="未覆盖到的用例" sheetId="8" r:id="rId8"/>
+    <sheet name="main_stream" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="299">
   <si>
     <t>case_id</t>
   </si>
@@ -344,6 +345,9 @@
     <t>POST</t>
   </si>
   <si>
+    <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
+  </si>
+  <si>
     <t>提现</t>
   </si>
   <si>
@@ -416,6 +420,48 @@
     <t>提现金额为非整数</t>
   </si>
   <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>管理员正常登录</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK"}</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>管理员加标</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":400,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>管理员审核</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
+  </si>
+  <si>
+    <t>投资人正常登录</t>
+  </si>
+  <si>
     <t>投资</t>
   </si>
   <si>
@@ -509,16 +555,10 @@
     <t>{'code': 2, 'msg': '数值参数格式错误'}</t>
   </si>
   <si>
-    <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
-  </si>
-  <si>
     <t>新增项目</t>
   </si>
   <si>
     <t>新增项目成功</t>
-  </si>
-  <si>
-    <t>/loan/add</t>
   </si>
   <si>
     <t>{"member_id":#admin_member_id#,
@@ -862,18 +902,33 @@
     <t>PATCH</t>
   </si>
   <si>
-    <t>/loan/audit</t>
-  </si>
-  <si>
     <t>{"loan_id": #loan_id#,"approved_or_not": true}</t>
   </si>
   <si>
+    <t>{'code': 0, 'msg': 'OK','status':2}</t>
+  </si>
+  <si>
+    <t>SELECT status FROM  futureloan.loan WHERE id=#loan_id#;</t>
+  </si>
+  <si>
     <t>审核不通过</t>
   </si>
   <si>
     <t>{"loan_id": #loan_id#,"approved_or_not": false}</t>
   </si>
   <si>
+    <t>{'code': 0, 'msg': 'OK','status':5}</t>
+  </si>
+  <si>
+    <t>审核通过再次审核</t>
+  </si>
+  <si>
+    <t>{"loan_id": #pass_loan_id#,"approved_or_not": true}</t>
+  </si>
+  <si>
+    <t>{"code": 2,"msg": "项目不在审核中状态"}</t>
+  </si>
+  <si>
     <t>项目id为空</t>
   </si>
   <si>
@@ -932,6 +987,87 @@
   </si>
   <si>
     <t>余额不足时提现</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>管理员注册</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#admin_phone#","pwd":"12345678","type":0,"reg_name":"34254sdfs"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#admin_phone#","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":40000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"12345678","type":1,"reg_name":"34254sdfs"}</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/member/#member_id#/info</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>更改昵称</t>
+  </si>
+  <si>
+    <t>/member/update</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "reg_name": "小柠檬666"}</t>
+  </si>
+  <si>
+    <t>recharge</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"amount":20000}</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>投资人正常投资</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#, "loan_id":#loan_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>withdraw</t>
+  </si>
+  <si>
+    <t>取现</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"amount":600}</t>
+  </si>
+  <si>
+    <t>loans</t>
+  </si>
+  <si>
+    <t>获取项目列表</t>
+  </si>
+  <si>
+    <t>/loans</t>
+  </si>
+  <si>
+    <t>{"pageIndex":1,"pageSize":20}</t>
   </si>
 </sst>
 </file>
@@ -939,18 +1075,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -969,6 +1117,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -977,6 +1150,27 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -991,6 +1185,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1000,25 +1201,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1030,9 +1216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,47 +1240,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1105,9 +1254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,7 +1270,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,19 +1348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,19 +1360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,85 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,19 +1396,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,16 +1450,29 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1344,13 +1505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,32 +1529,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,6 +1579,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1447,10 +1608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1459,147 +1620,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1937,28 +2107,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1966,25 +2136,25 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -1995,25 +2165,25 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
@@ -2024,25 +2194,25 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="s">
@@ -2050,25 +2220,25 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" t="s">
@@ -2076,25 +2246,25 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H6" t="s">
@@ -2102,25 +2272,25 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H7" t="s">
@@ -2128,25 +2298,25 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
@@ -2154,25 +2324,25 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H9" t="s">
@@ -2180,25 +2350,25 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H10" t="s">
@@ -2206,25 +2376,25 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
@@ -2235,25 +2405,25 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
@@ -2264,25 +2434,25 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H13" t="s">
@@ -2306,7 +2476,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -2320,51 +2490,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H2" t="s">
@@ -2372,25 +2542,25 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H3" t="s">
@@ -2398,25 +2568,25 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H4" t="s">
@@ -2424,25 +2594,25 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H5" t="s">
@@ -2450,25 +2620,25 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H6" t="s">
@@ -2476,25 +2646,25 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H7" t="s">
@@ -2502,25 +2672,25 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H8" t="s">
@@ -2540,13 +2710,13 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H9" t="s">
@@ -2587,28 +2757,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -2625,7 +2795,7 @@
       <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
@@ -2654,7 +2824,7 @@
       <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -2683,7 +2853,7 @@
       <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
@@ -2712,7 +2882,7 @@
       <c r="C5" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
@@ -2741,7 +2911,7 @@
       <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
@@ -2767,7 +2937,7 @@
       <c r="C7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
@@ -2793,7 +2963,7 @@
       <c r="C8" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
@@ -2819,7 +2989,7 @@
       <c r="C9" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
@@ -2845,7 +3015,7 @@
       <c r="C10" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
@@ -2871,7 +3041,7 @@
       <c r="C11" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
@@ -2897,7 +3067,7 @@
       <c r="C12" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
@@ -2923,7 +3093,7 @@
       <c r="C13" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
@@ -2949,7 +3119,7 @@
       <c r="C14" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
@@ -2975,7 +3145,7 @@
       <c r="C15" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
@@ -3002,8 +3172,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -3017,28 +3187,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -3058,11 +3228,11 @@
       <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
+      <c r="F2" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -3076,19 +3246,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
@@ -3105,19 +3275,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
         <v>49</v>
@@ -3134,19 +3304,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
@@ -3163,7 +3333,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
@@ -3172,13 +3342,13 @@
         <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -3189,19 +3359,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
         <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
         <v>81</v>
@@ -3215,7 +3385,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
@@ -3224,13 +3394,13 @@
         <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -3241,7 +3411,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
         <v>85</v>
@@ -3250,13 +3420,13 @@
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" t="s">
         <v>121</v>
-      </c>
-      <c r="G9" t="s">
-        <v>120</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -3267,19 +3437,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
         <v>92</v>
@@ -3293,16 +3463,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
         <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
         <v>94</v>
@@ -3319,16 +3489,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -3348,22 +3518,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
         <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H13" t="s">
         <v>53</v>
@@ -3374,22 +3544,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
         <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
         <v>53</v>
@@ -3400,16 +3570,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -3426,22 +3596,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -3459,297 +3629,389 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="38.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="15.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="6" max="6" width="57.2222222222222" customWidth="1"/>
     <col min="7" max="7" width="51.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="14.4" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="57.6" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" t="s">
         <v>136</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="G3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" t="s">
-        <v>141</v>
+        <v>132</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
         <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
         <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3763,49 +4025,49 @@
   <sheetPr/>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="5" max="5" width="10.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="35.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="15.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="53.2222222222222" customWidth="1"/>
     <col min="7" max="7" width="67.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="96.6" customHeight="1" spans="1:7">
+    <row r="2" ht="96.6" customHeight="1" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3822,10 +4084,13 @@
         <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="96.6" customHeight="1" spans="1:9">
@@ -3833,25 +4098,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>166</v>
+        <v>138</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" ht="96.6" customHeight="1" spans="1:9">
@@ -3859,25 +4127,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>169</v>
+        <v>138</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" ht="96.6" customHeight="1" spans="1:9">
@@ -3885,25 +4156,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>171</v>
+        <v>138</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" ht="96.6" customHeight="1" spans="1:9">
@@ -3911,25 +4185,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>173</v>
+        <v>138</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" ht="96.6" customHeight="1" spans="1:9">
@@ -3937,33 +4214,36 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
         <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" ht="96.6" customHeight="1" spans="1:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" ht="96.6" customHeight="1" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
@@ -3972,450 +4252,510 @@
         <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>176</v>
+        <v>138</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" ht="96.6" customHeight="1" spans="1:7">
+        <v>152</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="96.6" customHeight="1" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>177</v>
+        <v>138</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" ht="96.6" customHeight="1" spans="1:7">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" ht="96.6" customHeight="1" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>179</v>
+        <v>138</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" ht="96.6" customHeight="1" spans="1:7">
+        <v>193</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="96.6" customHeight="1" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
         <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>182</v>
+        <v>138</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="G11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" ht="96.6" customHeight="1" spans="1:7">
+        <v>196</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="96.6" customHeight="1" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>185</v>
+        <v>138</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" ht="96.6" customHeight="1" spans="1:7">
+        <v>199</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="96.6" customHeight="1" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D13" t="s">
         <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>188</v>
+        <v>138</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" ht="96.6" customHeight="1" spans="1:7">
+        <v>199</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="96.6" customHeight="1" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
         <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>190</v>
+        <v>138</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="G14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" ht="96.6" customHeight="1" spans="1:7">
+        <v>199</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="96.6" customHeight="1" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>192</v>
+        <v>138</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" ht="96.6" customHeight="1" spans="1:7">
+        <v>206</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" ht="96.6" customHeight="1" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>195</v>
+        <v>138</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" ht="96.6" customHeight="1" spans="1:7">
+        <v>209</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="96.6" customHeight="1" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>138</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="G17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" ht="96.6" customHeight="1" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="96.6" customHeight="1" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
         <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>201</v>
+        <v>138</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="G18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" ht="96.6" customHeight="1" spans="1:7">
+        <v>215</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="96.6" customHeight="1" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D19" t="s">
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>204</v>
+        <v>138</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="G19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" ht="96.6" customHeight="1" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="96.6" customHeight="1" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>207</v>
+        <v>138</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" ht="96.6" customHeight="1" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="96.6" customHeight="1" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>209</v>
+        <v>138</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="G21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" ht="96.6" customHeight="1" spans="1:7">
+        <v>223</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="96.6" customHeight="1" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D22" t="s">
         <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>212</v>
+        <v>138</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="G22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" ht="96.6" customHeight="1" spans="1:7">
+        <v>223</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="96.6" customHeight="1" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
         <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>214</v>
+        <v>138</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" ht="96.6" spans="1:7">
+        <v>228</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" ht="96.6" customHeight="1" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
         <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>217</v>
+        <v>138</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="G24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" ht="96.6" spans="1:7">
+        <v>231</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="96.6" customHeight="1" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D25" t="s">
         <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>220</v>
+        <v>138</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" ht="96.6" spans="1:7">
+        <v>234</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" ht="96.6" customHeight="1" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>223</v>
+        <v>138</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="G26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" ht="96.6" spans="1:7">
+        <v>237</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="96.6" customHeight="1" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
         <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>226</v>
+        <v>138</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>224</v>
+        <v>237</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4427,113 +4767,122 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="11.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="38.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="13.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="45.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="53.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="27.6" spans="1:7">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>231</v>
+        <v>143</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" ht="27.6" spans="1:7">
+        <v>244</v>
+      </c>
+      <c r="I2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>233</v>
+        <v>143</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>248</v>
+      </c>
+      <c r="I3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>235</v>
+        <v>143</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4541,91 +4890,91 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>237</v>
+        <v>143</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" ht="27.6" spans="1:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>240</v>
+        <v>143</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" ht="27.6" spans="1:7">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>242</v>
+        <v>143</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" ht="27.6" customHeight="1" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>245</v>
+        <v>143</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4633,22 +4982,45 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" t="s">
-        <v>248</v>
+        <v>143</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4673,27 +5045,404 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.55555555555556" customWidth="1"/>
+    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="84.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="23.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/excise_request/data/cases.xlsx
+++ b/excise_request/data/cases.xlsx
@@ -83,11 +83,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -180,6 +180,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3371,7 +3372,7 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3487,7 +3488,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3538,7 +3539,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3589,7 +3590,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3640,7 +3641,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3691,7 +3692,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3742,7 +3743,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3788,7 +3789,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3834,7 +3835,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3880,7 +3881,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3926,7 +3927,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3972,7 +3973,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -4018,7 +4019,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -4064,7 +4065,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4110,7 +4111,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4156,7 +4157,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4202,7 +4203,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4248,7 +4249,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4294,7 +4295,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4340,7 +4341,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4386,7 +4387,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4432,7 +4433,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4477,7 +4478,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4523,7 +4524,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4569,7 +4570,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4615,7 +4616,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4658,15 +4659,15 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:AS35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col width="23.125" customWidth="1" min="3" max="3"/>
     <col width="11.5" customWidth="1" min="5" max="5"/>
-    <col width="45.875" customWidth="1" min="6" max="6"/>
+    <col width="51.625" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="48.5" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -4733,7 +4734,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PATCH</t>
+          <t>patch</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4741,9 +4742,9 @@
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>{"loan_id": #loan_id#,"approved_or_not": True}</t>
+      <c r="F2" s="13" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -4778,7 +4779,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PATCH</t>
+          <t>patch</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4786,9 +4787,9 @@
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>{"loan_id": #loan_id#,"approved_or_not": False}</t>
+      <c r="F3" s="13" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not": False}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -4823,7 +4824,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PATCH</t>
+          <t>patch</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4858,7 +4859,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PATCH</t>
+          <t>patch</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -4898,7 +4899,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PATCH</t>
+          <t>patch</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4938,7 +4939,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PATCH</t>
+          <t>patch</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4978,7 +4979,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PATCH</t>
+          <t>patch</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -5018,7 +5019,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PATCH</t>
+          <t>patch</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5058,7 +5059,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PATCH</t>
+          <t>patch</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
